--- a/해야할 일들.xlsx
+++ b/해야할 일들.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>당일 상한가/거래대금1000억 이사의 종목을 하나의 엑셀에 시트구분하여 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>각 종목의 섹터를 확인하여 돈이 몰리는 테마를 구분한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,10 +34,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>종목중에 대장주를 선정하여 트래팅한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이슈를 분석하여 단기/중기/장기로 투자 방향을 잡고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -50,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상한가 종목을 크롤링하는 것은 성고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1000억 이상 종목을 크롤링하는 것 해야 함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -66,11 +54,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">결과물 xlsx를 불러서 리스트업된 종목들 루프를 돌리면서 종목명을 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련뉴스를 좀 더 많은 양이 수집되어야 할 것 같음</t>
+    <t>매일 장 종료후 자동으로 수집할 수 있도록 스케줄링 할것</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드를 잘 다듬어서 완성도를 높여야 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과물 xlsx를 불러서 리스트업된 종목들 루프를 돌리면서 종목명을 종목코드로 변환하는 코드 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 엑셀 파일의 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상한가.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000억이상.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일 강세 테마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목중에 대장주를 선정하여 트래킹한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대장주 매집봉 분석 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래량이 터지면서 장대 양봉 주목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장대 양봉이후 5거래일간 추세가 꺾이지 않으면 진입 가능성 높음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 전 탈출 계획을 세워야 함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련주 상세 (시가총액 상위 5개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버틀러를 이용한 크롤링은 어떤 식으로 가능한가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 뉴스 수집 양 보강 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당일 상한가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래대금1000억 이상의 종목을 하나의 엑셀에 시트구분하여 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -412,76 +468,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>5</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
